--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1189430.527043433</v>
+        <v>1188107.963231498</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948782</v>
+        <v>5866991.033948787</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783678.472736051</v>
+        <v>1783678.472736052</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8659015.453786898</v>
+        <v>8659015.453786897</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>25.92300358882691</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>395.0742851230816</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -822,22 +822,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>168.5189235446975</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>179.4255524065279</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>67.12474986620785</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>42.43741174507631</v>
+        <v>193.5684144801818</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>146.2889520628528</v>
       </c>
       <c r="C8" t="n">
-        <v>177.6287399074055</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1347,13 +1347,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>256.8454395874278</v>
       </c>
       <c r="V10" t="n">
-        <v>170.9942080153526</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>372.3536886992978</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>48.57570989689639</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>205.3231327008353</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -1624,7 +1624,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.421695385058</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>158.3449400448995</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2004,25 +2004,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>60.00040585823023</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>73.17668739783484</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2149,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>360.4665252061834</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>93.45986779485281</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>133.5470574896208</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>173.719034683046</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.4697473695408</v>
+        <v>386.6812869399522</v>
       </c>
       <c r="H23" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
-        <v>78.88597920914968</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.234755280439</v>
@@ -2478,22 +2478,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>112.8724405582094</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.3622066344275</v>
+        <v>101.7173379732804</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H26" t="n">
-        <v>79.34530250563819</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
         <v>78.88597920914968</v>
@@ -2614,7 +2614,7 @@
         <v>254.4761865113606</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>119.6389231920607</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>66.07896560696119</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>217.9354172723949</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T29" t="n">
-        <v>122.5603156417023</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U29" t="n">
         <v>254.4761865113606</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>119.6389231920598</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5010685613433</v>
+        <v>129.2656002517205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>236.8250266956711</v>
@@ -3012,10 +3012,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>258.2781303342958</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>183.4965574034472</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3085,7 +3085,7 @@
         <v>219.234755280439</v>
       </c>
       <c r="U32" t="n">
-        <v>27.77593058653812</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>66.07896560696121</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>129.4033871859277</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3268,7 +3268,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>258.2090680641879</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3283,7 +3283,7 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H35" t="n">
-        <v>158.2312817147879</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>129.4033871859277</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>71.06114976053989</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>183.4965574034482</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3565,7 +3565,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>153.2224419313585</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>12.85273585425902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>183.1891117048806</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.41224808872058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H41" t="n">
-        <v>79.34530250563822</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I41" t="n">
-        <v>78.88597920914967</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>219.234755280439</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4761865113606</v>
+        <v>27.77593058653722</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3839,7 +3839,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>13.26433328379085</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>227.6648201323813</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3963,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3988,7 +3988,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>190.1198520010252</v>
       </c>
       <c r="G44" t="n">
         <v>404.4697473695408</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T44" t="n">
         <v>219.234755280439</v>
       </c>
       <c r="U44" t="n">
-        <v>157.8017468726239</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4140,10 +4140,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>27.16490817753357</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4155,7 +4155,7 @@
         <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>24.09702927570282</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1277.096428763703</v>
+        <v>100.351163121435</v>
       </c>
       <c r="C2" t="n">
-        <v>866.9718380769729</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D2" t="n">
-        <v>462.5079081700334</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E2" t="n">
         <v>63.44297370227418</v>
@@ -4333,22 +4333,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="L2" t="n">
         <v>812.7934917636817</v>
       </c>
-      <c r="L2" t="n">
-        <v>1054.568412147452</v>
-      </c>
       <c r="M2" t="n">
-        <v>1571.411346813777</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N2" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1312.152413668882</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>911.5090158378343</v>
       </c>
       <c r="Y2" t="n">
-        <v>1687.317608428192</v>
+        <v>510.5723427859244</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161367</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650825</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844749</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768029</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593075</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
@@ -4406,31 +4406,31 @@
         <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M3" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>1531.257211227551</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>2048.100145893876</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>2048.100145893876</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>377.4895839572943</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4521,19 +4521,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>565.1892903513386</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1063.485050816083</v>
+        <v>956.134083381277</v>
       </c>
       <c r="C5" t="n">
-        <v>882.247119092317</v>
+        <v>950.0498967349512</v>
       </c>
       <c r="D5" t="n">
-        <v>881.8235932257816</v>
+        <v>949.6263708684157</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>535.2861553853124</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>114.255743339</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>109.5678632722362</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4567,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>1473.706230480572</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W5" t="n">
-        <v>1473.706230480572</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X5" t="n">
-        <v>1473.706230480572</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="Y5" t="n">
-        <v>1473.706230480572</v>
+        <v>962.3148590053625</v>
       </c>
     </row>
     <row r="6">
@@ -4655,19 +4655,19 @@
         <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>558.6080202959273</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147451</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>690.627119468566</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>519.5337470302825</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>519.5337470302825</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>358.622931898602</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1528.297909780678</v>
+        <v>1189.248563140279</v>
       </c>
       <c r="U7" t="n">
-        <v>1245.499762326802</v>
+        <v>1189.248563140279</v>
       </c>
       <c r="V7" t="n">
-        <v>971.614017266324</v>
+        <v>915.3628180798013</v>
       </c>
       <c r="W7" t="n">
-        <v>692.5443527751984</v>
+        <v>915.3628180798013</v>
       </c>
       <c r="X7" t="n">
-        <v>454.2004906348818</v>
+        <v>915.3628180798013</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236465</v>
+        <v>690.627119468566</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1458.930348750966</v>
+        <v>1199.239803110925</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.507379147526</v>
+        <v>1193.155616464599</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.08385328099</v>
+        <v>1192.732090598063</v>
       </c>
       <c r="E8" t="n">
-        <v>1268.784041838291</v>
+        <v>778.3918751149602</v>
       </c>
       <c r="F8" t="n">
-        <v>847.7536297919787</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N8" t="n">
-        <v>733.4074053521598</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O8" t="n">
-        <v>1250.250340018485</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P8" t="n">
         <v>1767.09327468481</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>1866.047797426961</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X8" t="n">
-        <v>1866.047797426961</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="Y8" t="n">
-        <v>1465.111124375051</v>
+        <v>1347.00642135623</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959273</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N9" t="n">
-        <v>704.7239474634679</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O9" t="n">
-        <v>1221.566882129793</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.3615225997325</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="C10" t="n">
-        <v>325.3615225997325</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="D10" t="n">
-        <v>325.3615225997325</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>325.3615225997325</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3615225997325</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
@@ -4995,19 +4995,19 @@
         <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="V10" t="n">
-        <v>604.4311870908582</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="W10" t="n">
-        <v>325.3615225997325</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="X10" t="n">
-        <v>325.3615225997325</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="Y10" t="n">
-        <v>325.3615225997325</v>
+        <v>800.5109188153651</v>
       </c>
     </row>
     <row r="11">
@@ -5026,10 +5026,10 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>873.3089913790386</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F11" t="n">
-        <v>490.5039577458317</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G11" t="n">
         <v>490.5039577458317</v>
@@ -5120,19 +5120,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N12" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
         <v>2139.732893541123</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.3100713238515</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="C13" t="n">
-        <v>93.2436976906228</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D13" t="n">
-        <v>93.2436976906228</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E13" t="n">
-        <v>93.2436976906228</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F13" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>1415.245490573255</v>
       </c>
       <c r="V13" t="n">
-        <v>554.7454763291312</v>
+        <v>1141.359745512777</v>
       </c>
       <c r="W13" t="n">
-        <v>554.7454763291312</v>
+        <v>1141.359745512777</v>
       </c>
       <c r="X13" t="n">
-        <v>554.7454763291312</v>
+        <v>1141.359745512777</v>
       </c>
       <c r="Y13" t="n">
-        <v>330.0097777178959</v>
+        <v>916.6240469015422</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2462.839627293158</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C14" t="n">
-        <v>2052.715036606428</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.251106699488</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E14" t="n">
-        <v>1233.910891216385</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F14" t="n">
-        <v>812.8804791700727</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G14" t="n">
-        <v>404.1521950629048</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H14" t="n">
         <v>93.2436976906228</v>
@@ -5278,10 +5278,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5293,7 +5293,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P14" t="n">
         <v>4300.467232046283</v>
@@ -5308,22 +5308,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U14" t="n">
-        <v>4408.238733368956</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V14" t="n">
-        <v>4058.401178705436</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W14" t="n">
-        <v>3674.640877840605</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X14" t="n">
-        <v>3273.997480009557</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2873.060806957647</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="15">
@@ -5357,16 +5357,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>1597.308950304478</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1537.369875986873</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U16" t="n">
-        <v>1537.369875986873</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V16" t="n">
-        <v>1537.369875986873</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W16" t="n">
-        <v>1537.369875986873</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X16" t="n">
-        <v>1537.369875986873</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5530,37 +5530,37 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P17" t="n">
-        <v>4300.467232046284</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.903809325241</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.6973252721</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4144.752941388363</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
         <v>184.7395020346666</v>
@@ -5591,25 +5591,25 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.24369769062281</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.24369769062281</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851895</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>912.5960014402549</v>
+        <v>487.8603711798485</v>
       </c>
       <c r="C19" t="n">
-        <v>912.5960014402549</v>
+        <v>316.766998741565</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>316.766998741565</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>316.766998741565</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>316.766998741565</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>316.766998741565</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>167.1595435470216</v>
       </c>
       <c r="I19" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
         <v>107.3262470958333</v>
@@ -5700,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>1100.295707834299</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.295707834299</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W19" t="n">
-        <v>1100.295707834299</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="X19" t="n">
-        <v>1100.295707834299</v>
+        <v>675.5600775738928</v>
       </c>
       <c r="Y19" t="n">
-        <v>1100.295707834299</v>
+        <v>675.5600775738928</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2139.066799289355</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5773,31 +5773,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q20" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R20" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.903809325241</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.6973252721</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.63683353161</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.799278868091</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003259</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172212</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2549.287978953845</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5819,7 +5819,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
         <v>184.7395020346666</v>
@@ -5828,25 +5828,25 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>93.24369769062281</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>93.24369769062281</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851895</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>828.6312213896092</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="C22" t="n">
-        <v>734.2273145261215</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="D22" t="n">
-        <v>574.7326698490315</v>
+        <v>389.050530488587</v>
       </c>
       <c r="E22" t="n">
-        <v>574.7326698490315</v>
+        <v>228.1397153569064</v>
       </c>
       <c r="F22" t="n">
-        <v>410.1015439596227</v>
+        <v>228.1397153569064</v>
       </c>
       <c r="G22" t="n">
-        <v>242.8511528851662</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
         <v>107.3262470958333</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V22" t="n">
-        <v>828.6312213896092</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W22" t="n">
-        <v>828.6312213896092</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X22" t="n">
-        <v>828.6312213896092</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y22" t="n">
-        <v>828.6312213896092</v>
+        <v>548.5451751656769</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2315.763990092807</v>
+        <v>2447.103198462591</v>
       </c>
       <c r="C23" t="n">
-        <v>1905.639399406077</v>
+        <v>2036.978607775861</v>
       </c>
       <c r="D23" t="n">
-        <v>1730.16562699896</v>
+        <v>1632.514677868921</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.825411515857</v>
+        <v>1218.174462385818</v>
       </c>
       <c r="F23" t="n">
-        <v>894.7949994695443</v>
+        <v>797.1440503395056</v>
       </c>
       <c r="G23" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H23" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I23" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J23" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732494</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477955</v>
+        <v>925.7208439477945</v>
       </c>
       <c r="L23" t="n">
         <v>1665.067141547876</v>
@@ -6010,31 +6010,31 @@
         <v>4480.322041270214</v>
       </c>
       <c r="Q23" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R23" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S23" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T23" t="n">
-        <v>4518.209749210383</v>
+        <v>4649.548957580167</v>
       </c>
       <c r="U23" t="n">
-        <v>4261.163096168605</v>
+        <v>4392.502304538389</v>
       </c>
       <c r="V23" t="n">
-        <v>3911.325541505086</v>
+        <v>4042.664749874869</v>
       </c>
       <c r="W23" t="n">
-        <v>3527.565240640254</v>
+        <v>3658.904449010038</v>
       </c>
       <c r="X23" t="n">
-        <v>3126.921842809207</v>
+        <v>3258.26105117899</v>
       </c>
       <c r="Y23" t="n">
-        <v>2725.985169757297</v>
+        <v>2857.32437812708</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I24" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676373</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L24" t="n">
-        <v>97.41996410676373</v>
+        <v>1248.658669000106</v>
       </c>
       <c r="M24" t="n">
-        <v>963.3815547230743</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="N24" t="n">
-        <v>1860.632488341521</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="O24" t="n">
-        <v>2137.637783597812</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="P24" t="n">
         <v>2137.637783597812</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1183.652854113933</v>
+        <v>372.3433454588578</v>
       </c>
       <c r="C25" t="n">
-        <v>1012.55948167565</v>
+        <v>372.3433454588578</v>
       </c>
       <c r="D25" t="n">
-        <v>853.0648369985595</v>
+        <v>372.3433454588578</v>
       </c>
       <c r="E25" t="n">
-        <v>692.1540218668789</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="F25" t="n">
-        <v>527.5228959774702</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="G25" t="n">
-        <v>360.3500994508607</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="H25" t="n">
         <v>211.4325303271773</v>
       </c>
       <c r="I25" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J25" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K25" t="n">
         <v>280.267281314263</v>
@@ -6174,25 +6174,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S25" t="n">
-        <v>1517.172971249823</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T25" t="n">
-        <v>1517.172971249823</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U25" t="n">
-        <v>1517.172971249823</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V25" t="n">
-        <v>1517.172971249823</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="W25" t="n">
-        <v>1517.172971249823</v>
+        <v>901.1316998248151</v>
       </c>
       <c r="X25" t="n">
-        <v>1517.172971249823</v>
+        <v>662.7878376844985</v>
       </c>
       <c r="Y25" t="n">
-        <v>1371.352560507977</v>
+        <v>560.0430518529022</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2315.763990092807</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C26" t="n">
-        <v>1905.639399406077</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D26" t="n">
-        <v>1501.175469499138</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E26" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F26" t="n">
-        <v>665.804841969722</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G26" t="n">
-        <v>257.2495415964485</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H26" t="n">
         <v>177.1027713887331</v>
@@ -6232,19 +6232,19 @@
         <v>925.7208439477959</v>
       </c>
       <c r="L26" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M26" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N26" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O26" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P26" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q26" t="n">
         <v>4819.791607344925</v>
@@ -6262,16 +6262,16 @@
         <v>4261.163096168605</v>
       </c>
       <c r="V26" t="n">
-        <v>3911.325541505086</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W26" t="n">
-        <v>3527.565240640254</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X26" t="n">
-        <v>3126.921842809207</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y26" t="n">
-        <v>2725.985169757297</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>97.41996410676373</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676373</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L27" t="n">
-        <v>97.41996410676373</v>
+        <v>1248.658669000106</v>
       </c>
       <c r="M27" t="n">
-        <v>963.3815547230743</v>
+        <v>2114.620259616416</v>
       </c>
       <c r="N27" t="n">
-        <v>1860.632488341521</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="O27" t="n">
         <v>2137.637783597812</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1069.640287893519</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C28" t="n">
-        <v>898.5469154552359</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D28" t="n">
-        <v>739.0522707781458</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E28" t="n">
-        <v>578.1414556464653</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F28" t="n">
-        <v>413.5103297570565</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G28" t="n">
-        <v>246.3375332304472</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H28" t="n">
         <v>97.41996410676373</v>
@@ -6384,7 +6384,7 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J28" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K28" t="n">
         <v>280.267281314263</v>
@@ -6414,22 +6414,22 @@
         <v>1702.21247802243</v>
       </c>
       <c r="T28" t="n">
-        <v>1702.21247802243</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U28" t="n">
-        <v>1702.21247802243</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V28" t="n">
-        <v>1702.21247802243</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W28" t="n">
-        <v>1702.21247802243</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X28" t="n">
-        <v>1482.075692898799</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="Y28" t="n">
-        <v>1257.339994287564</v>
+        <v>164.1663940127851</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I29" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J29" t="n">
-        <v>365.9950463732503</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477956</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L29" t="n">
         <v>1665.067141547876</v>
@@ -6478,25 +6478,25 @@
         <v>3254.588416372259</v>
       </c>
       <c r="O29" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P29" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q29" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R29" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S29" t="n">
-        <v>4870.998205338186</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T29" t="n">
-        <v>4747.199906710204</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U29" t="n">
-        <v>4490.153253668426</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V29" t="n">
         <v>4140.315699004907</v>
@@ -6539,22 +6539,22 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I30" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="K30" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="L30" t="n">
-        <v>97.41996410676373</v>
+        <v>778.2043133443128</v>
       </c>
       <c r="M30" t="n">
-        <v>963.3815547230743</v>
+        <v>778.2043133443128</v>
       </c>
       <c r="N30" t="n">
-        <v>1860.632488341521</v>
+        <v>1412.097852308888</v>
       </c>
       <c r="O30" t="n">
         <v>2137.637783597812</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>378.6053268537867</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="C31" t="n">
-        <v>378.6053268537867</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="D31" t="n">
-        <v>378.6053268537867</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="E31" t="n">
-        <v>378.6053268537867</v>
+        <v>227.9912774923399</v>
       </c>
       <c r="F31" t="n">
-        <v>378.6053268537867</v>
+        <v>227.9912774923399</v>
       </c>
       <c r="G31" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H31" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J31" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K31" t="n">
         <v>280.267281314263</v>
@@ -6645,28 +6645,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R31" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S31" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T31" t="n">
-        <v>1196.171987275931</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U31" t="n">
-        <v>913.3780722519373</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V31" t="n">
-        <v>639.4923271914593</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W31" t="n">
-        <v>378.6053268537867</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X31" t="n">
-        <v>378.6053268537867</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="Y31" t="n">
-        <v>378.6053268537867</v>
+        <v>388.9020926240204</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2544.754147592629</v>
+        <v>2315.763990092806</v>
       </c>
       <c r="C32" t="n">
-        <v>2134.629556905899</v>
+        <v>1905.639399406076</v>
       </c>
       <c r="D32" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.175469499137</v>
       </c>
       <c r="E32" t="n">
         <v>1315.825411515857</v>
@@ -6697,13 +6697,13 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I32" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J32" t="n">
-        <v>365.9950463732506</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K32" t="n">
-        <v>925.7208439477963</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L32" t="n">
         <v>1665.067141547876</v>
@@ -6712,40 +6712,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O32" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P32" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q32" t="n">
-        <v>4819.791607344926</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R32" t="n">
-        <v>4870.998205338187</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S32" t="n">
-        <v>4739.658996968403</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T32" t="n">
-        <v>4518.209749210384</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U32" t="n">
-        <v>4490.153253668426</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V32" t="n">
-        <v>4140.315699004907</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W32" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X32" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809206</v>
       </c>
       <c r="Y32" t="n">
-        <v>2954.975327257119</v>
+        <v>2725.985169757296</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I33" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J33" t="n">
-        <v>97.41996410676374</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K33" t="n">
-        <v>97.41996410676374</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L33" t="n">
-        <v>97.41996410676374</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M33" t="n">
-        <v>514.8469186904414</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N33" t="n">
-        <v>1412.097852308888</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O33" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P33" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q33" t="n">
         <v>2137.637783597812</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4220.218938192591</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C34" t="n">
-        <v>4049.125565754307</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D34" t="n">
-        <v>3889.630921077217</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E34" t="n">
-        <v>3728.720105945537</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F34" t="n">
-        <v>3564.088980056128</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G34" t="n">
-        <v>3396.916183529519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H34" t="n">
-        <v>3266.205691422521</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I34" t="n">
-        <v>3266.205691422521</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J34" t="n">
-        <v>3285.665005263328</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K34" t="n">
-        <v>3449.05300863002</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L34" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M34" t="n">
-        <v>4021.442036604622</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N34" t="n">
-        <v>4313.918606801932</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O34" t="n">
-        <v>4584.228597795071</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P34" t="n">
-        <v>4799.101990217909</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q34" t="n">
-        <v>4870.998205338187</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R34" t="n">
-        <v>4870.998205338187</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S34" t="n">
-        <v>4870.998205338187</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T34" t="n">
-        <v>4870.998205338187</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U34" t="n">
-        <v>4870.998205338187</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V34" t="n">
-        <v>4870.998205338187</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W34" t="n">
-        <v>4870.998205338187</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X34" t="n">
-        <v>4632.654343197871</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="Y34" t="n">
-        <v>4407.918644586635</v>
+        <v>164.1663940127851</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2315.763990092807</v>
       </c>
       <c r="C35" t="n">
-        <v>1905.639399406077</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D35" t="n">
-        <v>1501.175469499138</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E35" t="n">
-        <v>1086.835254016034</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F35" t="n">
-        <v>665.804841969722</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G35" t="n">
-        <v>257.2495415964485</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H35" t="n">
         <v>97.41996410676373</v>
@@ -6940,13 +6940,13 @@
         <v>365.9950463732503</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477956</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L35" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M35" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N35" t="n">
         <v>3254.588416372259</v>
@@ -6955,7 +6955,7 @@
         <v>3926.785084202962</v>
       </c>
       <c r="P35" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q35" t="n">
         <v>4819.791607344925</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3505.438158345676</v>
+        <v>772.0777366053014</v>
       </c>
       <c r="C36" t="n">
-        <v>3371.443087094622</v>
+        <v>638.0826653542472</v>
       </c>
       <c r="D36" t="n">
-        <v>3254.545929314014</v>
+        <v>521.1855075736396</v>
       </c>
       <c r="E36" t="n">
-        <v>3134.053113306342</v>
+        <v>400.6926915659676</v>
       </c>
       <c r="F36" t="n">
-        <v>3025.093233488847</v>
+        <v>291.7328117484722</v>
       </c>
       <c r="G36" t="n">
-        <v>2918.195675260429</v>
+        <v>184.8352535200544</v>
       </c>
       <c r="H36" t="n">
-        <v>2848.342343501628</v>
+        <v>114.9819217612538</v>
       </c>
       <c r="I36" t="n">
-        <v>2830.780385847138</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J36" t="n">
-        <v>2830.780385847138</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="K36" t="n">
-        <v>2830.780385847138</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="L36" t="n">
-        <v>2830.780385847138</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="M36" t="n">
-        <v>3696.741976463449</v>
+        <v>514.8469186904414</v>
       </c>
       <c r="N36" t="n">
-        <v>4593.992910081895</v>
+        <v>1412.097852308888</v>
       </c>
       <c r="O36" t="n">
-        <v>4870.998205338186</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="P36" t="n">
-        <v>4870.998205338186</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="Q36" t="n">
-        <v>4870.998205338186</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R36" t="n">
-        <v>4870.998205338186</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="S36" t="n">
-        <v>4764.727353901733</v>
+        <v>2031.366932161359</v>
       </c>
       <c r="T36" t="n">
-        <v>4605.758549501929</v>
+        <v>1872.398127761555</v>
       </c>
       <c r="U36" t="n">
-        <v>4408.413827749177</v>
+        <v>1675.053406008803</v>
       </c>
       <c r="V36" t="n">
-        <v>4194.702300742211</v>
+        <v>1461.341879001837</v>
       </c>
       <c r="W36" t="n">
-        <v>3981.46913247854</v>
+        <v>1248.108710738165</v>
       </c>
       <c r="X36" t="n">
-        <v>3805.143150617433</v>
+        <v>1071.782728877058</v>
       </c>
       <c r="Y36" t="n">
-        <v>3645.741190981263</v>
+        <v>912.3807692408881</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4089.508446085592</v>
+        <v>920.7227187698359</v>
       </c>
       <c r="C37" t="n">
-        <v>3918.415073647309</v>
+        <v>749.6293463315524</v>
       </c>
       <c r="D37" t="n">
-        <v>3758.920428970219</v>
+        <v>590.1347016544623</v>
       </c>
       <c r="E37" t="n">
-        <v>3598.009613838538</v>
+        <v>429.2238865227819</v>
       </c>
       <c r="F37" t="n">
-        <v>3433.37848794913</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="G37" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H37" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I37" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J37" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K37" t="n">
-        <v>3449.053008630019</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L37" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M37" t="n">
-        <v>4021.442036604621</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N37" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O37" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P37" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q37" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R37" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S37" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T37" t="n">
-        <v>4870.998205338186</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U37" t="n">
-        <v>4870.998205338186</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V37" t="n">
-        <v>4870.998205338186</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="W37" t="n">
-        <v>4740.287713231189</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="X37" t="n">
-        <v>4501.943851090872</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="Y37" t="n">
-        <v>4277.208152479637</v>
+        <v>1108.42242516388</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2315.763990092807</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C38" t="n">
-        <v>1905.639399406077</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D38" t="n">
-        <v>1501.175469499138</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E38" t="n">
         <v>1315.825411515857</v>
@@ -7171,13 +7171,13 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I38" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J38" t="n">
-        <v>365.9950463732503</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477956</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L38" t="n">
         <v>1665.067141547876</v>
@@ -7189,37 +7189,37 @@
         <v>3254.588416372259</v>
       </c>
       <c r="O38" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P38" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q38" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R38" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S38" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T38" t="n">
-        <v>4518.209749210383</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U38" t="n">
-        <v>4261.163096168605</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V38" t="n">
-        <v>3911.325541505086</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W38" t="n">
-        <v>3527.565240640254</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X38" t="n">
-        <v>3126.921842809207</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y38" t="n">
-        <v>2725.985169757297</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I39" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676373</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L39" t="n">
-        <v>778.2043133443128</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M39" t="n">
-        <v>1412.097852308888</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N39" t="n">
-        <v>1412.097852308888</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O39" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P39" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q39" t="n">
         <v>2137.637783597812</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3266.20569142252</v>
+        <v>442.2064479917303</v>
       </c>
       <c r="C40" t="n">
-        <v>3266.20569142252</v>
+        <v>442.2064479917303</v>
       </c>
       <c r="D40" t="n">
-        <v>3266.20569142252</v>
+        <v>442.2064479917303</v>
       </c>
       <c r="E40" t="n">
-        <v>3266.20569142252</v>
+        <v>442.2064479917303</v>
       </c>
       <c r="F40" t="n">
-        <v>3266.20569142252</v>
+        <v>277.5753221023216</v>
       </c>
       <c r="G40" t="n">
-        <v>3266.20569142252</v>
+        <v>110.4025255757122</v>
       </c>
       <c r="H40" t="n">
-        <v>3266.20569142252</v>
+        <v>110.4025255757122</v>
       </c>
       <c r="I40" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J40" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K40" t="n">
-        <v>3449.053008630019</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L40" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M40" t="n">
-        <v>4021.442036604621</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N40" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O40" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P40" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q40" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R40" t="n">
-        <v>4789.214420046789</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S40" t="n">
-        <v>4604.174913274182</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T40" t="n">
-        <v>4364.957714591686</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="U40" t="n">
-        <v>4082.163799567693</v>
+        <v>995.161857543334</v>
       </c>
       <c r="V40" t="n">
-        <v>3808.278054507215</v>
+        <v>721.276112482856</v>
       </c>
       <c r="W40" t="n">
-        <v>3529.20839001609</v>
+        <v>442.2064479917303</v>
       </c>
       <c r="X40" t="n">
-        <v>3290.864527875773</v>
+        <v>442.2064479917303</v>
       </c>
       <c r="Y40" t="n">
-        <v>3266.20569142252</v>
+        <v>442.2064479917303</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2315.763990092807</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C41" t="n">
-        <v>1905.639399406077</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D41" t="n">
-        <v>1501.175469499138</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E41" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F41" t="n">
-        <v>665.804841969722</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G41" t="n">
-        <v>257.2495415964485</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H41" t="n">
         <v>177.1027713887331</v>
@@ -7414,22 +7414,22 @@
         <v>365.9950463732503</v>
       </c>
       <c r="K41" t="n">
-        <v>925.7208439477956</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L41" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M41" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N41" t="n">
         <v>3254.588416372259</v>
       </c>
       <c r="O41" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P41" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q41" t="n">
         <v>4819.791607344925</v>
@@ -7444,19 +7444,19 @@
         <v>4518.209749210383</v>
       </c>
       <c r="U41" t="n">
-        <v>4261.163096168605</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V41" t="n">
-        <v>3911.325541505086</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W41" t="n">
-        <v>3527.565240640254</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X41" t="n">
-        <v>3126.921842809207</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y41" t="n">
-        <v>2725.985169757297</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J42" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K42" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>778.2043133443128</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M42" t="n">
-        <v>778.2043133443128</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N42" t="n">
-        <v>1675.455246962759</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O42" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P42" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q42" t="n">
         <v>2137.637783597812</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>268.5133365450472</v>
+        <v>866.4631534468331</v>
       </c>
       <c r="C43" t="n">
-        <v>97.41996410676373</v>
+        <v>853.0648369985595</v>
       </c>
       <c r="D43" t="n">
-        <v>97.41996410676373</v>
+        <v>853.0648369985595</v>
       </c>
       <c r="E43" t="n">
-        <v>97.41996410676373</v>
+        <v>692.1540218668789</v>
       </c>
       <c r="F43" t="n">
-        <v>97.41996410676373</v>
+        <v>527.5228959774702</v>
       </c>
       <c r="G43" t="n">
-        <v>97.41996410676373</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H43" t="n">
-        <v>97.41996410676373</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I43" t="n">
         <v>97.41996410676373</v>
       </c>
       <c r="J43" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K43" t="n">
-        <v>280.2672813142631</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L43" t="n">
         <v>551.4710044025715</v>
@@ -7602,19 +7602,19 @@
         <v>1702.21247802243</v>
       </c>
       <c r="U43" t="n">
-        <v>1472.248013242247</v>
+        <v>1419.418562998437</v>
       </c>
       <c r="V43" t="n">
-        <v>1198.362268181769</v>
+        <v>1145.532817937959</v>
       </c>
       <c r="W43" t="n">
-        <v>919.2926036906435</v>
+        <v>866.4631534468331</v>
       </c>
       <c r="X43" t="n">
-        <v>680.9487415503269</v>
+        <v>866.4631534468331</v>
       </c>
       <c r="Y43" t="n">
-        <v>456.2130429390916</v>
+        <v>866.4631534468331</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2544.754147592629</v>
+        <v>2315.763990092807</v>
       </c>
       <c r="C44" t="n">
-        <v>2134.629556905899</v>
+        <v>1905.639399406077</v>
       </c>
       <c r="D44" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.175469499138</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.825411515857</v>
+        <v>1086.835254016034</v>
       </c>
       <c r="F44" t="n">
         <v>894.7949994695443</v>
@@ -7654,19 +7654,19 @@
         <v>925.7208439477954</v>
       </c>
       <c r="L44" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M44" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N44" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O44" t="n">
         <v>3926.785084202961</v>
       </c>
       <c r="P44" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q44" t="n">
         <v>4819.791607344925</v>
@@ -7675,25 +7675,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S44" t="n">
-        <v>4870.998205338186</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T44" t="n">
-        <v>4649.548957580168</v>
+        <v>4518.209749210383</v>
       </c>
       <c r="U44" t="n">
-        <v>4490.153253668426</v>
+        <v>4261.163096168605</v>
       </c>
       <c r="V44" t="n">
-        <v>4140.315699004907</v>
+        <v>3911.325541505086</v>
       </c>
       <c r="W44" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640254</v>
       </c>
       <c r="X44" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809207</v>
       </c>
       <c r="Y44" t="n">
-        <v>2954.975327257119</v>
+        <v>2725.985169757297</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J45" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K45" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L45" t="n">
-        <v>97.41996410676373</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="M45" t="n">
-        <v>97.41996410676373</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="N45" t="n">
-        <v>471.6459758402809</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="O45" t="n">
-        <v>1197.185907129205</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="P45" t="n">
-        <v>1776.213932090868</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="Q45" t="n">
         <v>2137.637783597812</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1183.652854113933</v>
+        <v>776.6741292741766</v>
       </c>
       <c r="C46" t="n">
-        <v>1012.55948167565</v>
+        <v>605.5807568358931</v>
       </c>
       <c r="D46" t="n">
-        <v>853.0648369985595</v>
+        <v>578.1414556464653</v>
       </c>
       <c r="E46" t="n">
-        <v>692.1540218668789</v>
+        <v>578.1414556464653</v>
       </c>
       <c r="F46" t="n">
-        <v>527.5228959774702</v>
+        <v>413.5103297570565</v>
       </c>
       <c r="G46" t="n">
-        <v>360.3500994508607</v>
+        <v>246.3375332304472</v>
       </c>
       <c r="H46" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I46" t="n">
         <v>97.41996410676373</v>
@@ -7830,28 +7830,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R46" t="n">
-        <v>1620.428692731034</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S46" t="n">
-        <v>1620.428692731034</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T46" t="n">
-        <v>1620.428692731034</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U46" t="n">
-        <v>1620.428692731034</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="V46" t="n">
-        <v>1620.428692731034</v>
+        <v>1189.109534279456</v>
       </c>
       <c r="W46" t="n">
-        <v>1620.428692731034</v>
+        <v>1189.109534279456</v>
       </c>
       <c r="X46" t="n">
-        <v>1596.088259119213</v>
+        <v>1189.109534279456</v>
       </c>
       <c r="Y46" t="n">
-        <v>1371.352560507977</v>
+        <v>964.373835668221</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>339.7024893595824</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>535.1658287548266</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8057,10 +8057,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>169.1029840574857</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>578.1780941808746</v>
@@ -8069,19 +8069,19 @@
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.25235142021847</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>553.2940084590249</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8303,22 +8303,22 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>528.6762761514418</v>
       </c>
       <c r="N6" t="n">
-        <v>554.1634861730673</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
@@ -8461,16 +8461,16 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>269.4773261669552</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>200.7852390175284</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8768,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -9005,19 +9005,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N15" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
@@ -9242,25 +9242,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>230.0378556308711</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9482,22 +9482,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>429.1692081600164</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.71231595856356</v>
+        <v>42.71231595856358</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421729</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>36.21939520654512</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>347.4295157730637</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654934</v>
       </c>
       <c r="O24" t="n">
-        <v>315.7539583063248</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P24" t="n">
-        <v>36.76253149458872</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861588</v>
+        <v>44.99626817861589</v>
       </c>
       <c r="R24" t="n">
         <v>53.31116889588058</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.71231595856356</v>
+        <v>42.71231595856358</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421729</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>36.21939520654512</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>52.61226458018182</v>
       </c>
       <c r="O27" t="n">
-        <v>315.7539583063248</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P27" t="n">
-        <v>36.76253149458872</v>
+        <v>36.76253149458874</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.99626817861588</v>
+        <v>44.99626817861589</v>
       </c>
       <c r="R27" t="n">
         <v>53.31116889588058</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.71231595856356</v>
+        <v>42.71231595856358</v>
       </c>
       <c r="K30" t="n">
-        <v>41.02972279421729</v>
+        <v>41.0297227942173</v>
       </c>
       <c r="L30" t="n">
-        <v>36.21939520654512</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>669.6587443611706</v>
       </c>
       <c r="O30" t="n">
-        <v>315.7539583063248</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>36.76253149458872</v>
+        <v>36.76253149458874</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.99626817861588</v>
+        <v>44.99626817861589</v>
       </c>
       <c r="R30" t="n">
         <v>53.31116889588058</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856356</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>41.02972279421729</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>36.21939520654512</v>
+        <v>468.4702802479529</v>
       </c>
       <c r="M33" t="n">
-        <v>455.9909955181485</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654934</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P33" t="n">
-        <v>36.76253149458872</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.99626817861588</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>53.31116889588058</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>42.71231595856356</v>
+        <v>42.71231595856358</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421729</v>
+        <v>41.0297227942173</v>
       </c>
       <c r="L36" t="n">
-        <v>36.21939520654512</v>
+        <v>36.21939520654513</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>455.9909955181486</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>315.7539583063243</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>36.76253149458872</v>
+        <v>36.76253149458874</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861588</v>
+        <v>44.99626817861589</v>
       </c>
       <c r="R36" t="n">
         <v>53.31116889588058</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856356</v>
+        <v>42.71231595856358</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421729</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>671.8876652738675</v>
       </c>
       <c r="M39" t="n">
-        <v>674.6441110544085</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N39" t="n">
-        <v>29.36224035654932</v>
+        <v>29.36224035654934</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458872</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.99626817861588</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>53.31116889588058</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>41.02972279421726</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>468.4702802479529</v>
       </c>
       <c r="M42" t="n">
-        <v>34.34760704978717</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654934</v>
       </c>
       <c r="O42" t="n">
-        <v>502.8016768707304</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P42" t="n">
-        <v>36.76253149458869</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.31116889588057</v>
+        <v>53.31116889588058</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>41.02972279421726</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>36.21939520654507</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>34.34760704978717</v>
+        <v>144.0121307471491</v>
       </c>
       <c r="N45" t="n">
-        <v>407.3683128146475</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461614</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>44.99626817861586</v>
       </c>
       <c r="R45" t="n">
         <v>53.31116889588057</v>
@@ -23266,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>120.8067288170043</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>74.64703327850174</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23548,10 +23548,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.06664624006493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>96.14494677818544</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>97.89929237208884</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>42.00589803888226</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>36.4607811152074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,22 +24129,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>75.92257091904784</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>32.03082967409122</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>17.78846042958861</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>80.96594743848279</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>78.12613499069542</v>
+        <v>120.7710036518425</v>
       </c>
     </row>
     <row r="26">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>226.7002559248234</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>119.7437437231428</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
         <v>112.8724405582094</v>
@@ -24654,19 +24654,19 @@
         <v>183.1891117048806</v>
       </c>
       <c r="T28" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>18.02500624651859</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>96.67443963873666</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>226.7002559248243</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>36.2354683096228</v>
       </c>
       <c r="H31" t="n">
         <v>147.4283934324466</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>18.00083751191852</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>226.700255924825</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>226.7002559248224</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>119.7437437231427</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H34" t="n">
-        <v>18.02500624651893</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I34" t="n">
         <v>112.8724405582094</v>
@@ -25128,16 +25128,16 @@
         <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>147.8142767156747</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>147.8142767156744</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>78.88597920914968</v>
@@ -25365,22 +25365,22 @@
         <v>183.1891117048806</v>
       </c>
       <c r="T37" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>146.8755806602867</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>151.4271918645831</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>226.7002559248246</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>147.4283934324466</v>
       </c>
       <c r="I40" t="n">
-        <v>112.8724405582094</v>
+        <v>100.0197047039504</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>198.0760935364023</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>226.7002559248234</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>156.1181054301098</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
-        <v>52.30115574137207</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>226.7002559248241</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>96.67443963873669</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>130.7347900527855</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S46" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>211.8633942432106</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>725345.7309885576</v>
+        <v>725345.7309885575</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>725345.7309885575</v>
+        <v>725345.7309885573</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>725345.7309885573</v>
+        <v>725345.7309885575</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>746092.6227457027</v>
+        <v>746092.6227457029</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>746092.6227457027</v>
+        <v>746092.622745703</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>746092.622745703</v>
+        <v>746092.6227457029</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>746092.6227457029</v>
+        <v>746092.6227457027</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>746092.6227457029</v>
+        <v>746092.6227457027</v>
       </c>
     </row>
     <row r="15">
@@ -26325,37 +26325,37 @@
         <v>362060.8344188673</v>
       </c>
       <c r="F2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188676</v>
       </c>
       <c r="G2" t="n">
         <v>362060.8344188677</v>
       </c>
       <c r="H2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188676</v>
       </c>
       <c r="I2" t="n">
-        <v>374038.6043892784</v>
+        <v>374038.6043892785</v>
       </c>
       <c r="J2" t="n">
-        <v>374038.6043892785</v>
+        <v>374038.6043892787</v>
       </c>
       <c r="K2" t="n">
         <v>374038.6043892786</v>
       </c>
       <c r="L2" t="n">
-        <v>374038.6043892783</v>
+        <v>374038.6043892785</v>
       </c>
       <c r="M2" t="n">
-        <v>374038.6043892782</v>
+        <v>374038.6043892786</v>
       </c>
       <c r="N2" t="n">
         <v>374038.6043892785</v>
       </c>
       <c r="O2" t="n">
+        <v>374038.6043892786</v>
+      </c>
+      <c r="P2" t="n">
         <v>374038.6043892785</v>
-      </c>
-      <c r="P2" t="n">
-        <v>374038.6043892786</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588481</v>
+        <v>45948.62261588476</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006826</v>
+        <v>160358.4505006828</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>74374.35696474131</v>
       </c>
       <c r="F4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="G4" t="n">
         <v>74374.35696474131</v>
@@ -26456,10 +26456,10 @@
         <v>73588.2819417936</v>
       </c>
       <c r="O4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="P4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
     </row>
     <row r="5">
@@ -26484,28 +26484,28 @@
         <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="J5" t="n">
         <v>74967.83978868564</v>
       </c>
       <c r="K5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="L5" t="n">
-        <v>74967.83978868565</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="M5" t="n">
         <v>74967.83978868564</v>
       </c>
       <c r="N5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="O5" t="n">
         <v>74967.83978868564</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-36521.27615816134</v>
+        <v>-36521.27615816144</v>
       </c>
       <c r="C6" t="n">
         <v>138434.2337349527</v>
@@ -26530,40 +26530,40 @@
         <v>138434.2337349528</v>
       </c>
       <c r="E6" t="n">
-        <v>24691.50430980949</v>
+        <v>24510.92371716039</v>
       </c>
       <c r="F6" t="n">
-        <v>216821.2672092529</v>
+        <v>216640.6866166039</v>
       </c>
       <c r="G6" t="n">
-        <v>216821.267209253</v>
+        <v>216640.686616604</v>
       </c>
       <c r="H6" t="n">
-        <v>216821.2672092529</v>
+        <v>216640.6866166039</v>
       </c>
       <c r="I6" t="n">
-        <v>179533.8600429143</v>
+        <v>179401.1905301471</v>
       </c>
       <c r="J6" t="n">
-        <v>88887.68185290432</v>
+        <v>88755.01234013698</v>
       </c>
       <c r="K6" t="n">
-        <v>225482.4826587994</v>
+        <v>225349.8131460319</v>
       </c>
       <c r="L6" t="n">
-        <v>225482.4826587991</v>
+        <v>225349.8131460319</v>
       </c>
       <c r="M6" t="n">
-        <v>65124.03215811629</v>
+        <v>64991.36264534909</v>
       </c>
       <c r="N6" t="n">
-        <v>225482.4826587993</v>
+        <v>225349.8131460318</v>
       </c>
       <c r="O6" t="n">
-        <v>225482.4826587992</v>
+        <v>225349.813146032</v>
       </c>
       <c r="P6" t="n">
-        <v>225482.4826587994</v>
+        <v>225349.8131460317</v>
       </c>
     </row>
   </sheetData>
@@ -26758,25 +26758,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812882</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812882</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812882</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812882</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812882</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="N3" t="n">
-        <v>42.59940676812882</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="O3" t="n">
-        <v>42.5994067681289</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="P3" t="n">
         <v>42.5994067681289</v>
@@ -26810,22 +26810,22 @@
         <v>1165.546221132785</v>
       </c>
       <c r="I4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="J4" t="n">
         <v>1217.749551334547</v>
       </c>
       <c r="K4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="L4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="M4" t="n">
         <v>1217.749551334547</v>
       </c>
       <c r="N4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="O4" t="n">
         <v>1217.749551334547</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812882</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>52.20333020176145</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700257</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627591</v>
+        <v>643.4826507627597</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>380.1003411910356</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>15.12252820519063</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>53.96941808042547</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>226.5977923733347</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>240.6746625323513</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27824,22 +27824,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>194.7158398879886</v>
+        <v>43.58483715288313</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>259.8300158049918</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>228.3946048724571</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28019,16 +28019,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>23.12472639190929</v>
       </c>
       <c r="V10" t="n">
-        <v>100.1526795945206</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1712538965552916</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096881</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947887</v>
+        <v>6.602265846947881</v>
       </c>
       <c r="J23" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394519</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064921</v>
+        <v>27.02514928064918</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351437</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N23" t="n">
-        <v>30.5572608971021</v>
+        <v>30.55726089710207</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323041</v>
+        <v>28.85435496323039</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202165</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163526</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R23" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753712</v>
+        <v>3.902448167753708</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707894</v>
+        <v>0.7496639321707889</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442333</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106954</v>
+        <v>0.09162891267106947</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284876</v>
+        <v>0.8849423934284869</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017088</v>
+        <v>3.154767388017085</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436444</v>
+        <v>8.656922841436437</v>
       </c>
       <c r="K24" t="n">
-        <v>14.7960599903981</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430394</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M24" t="n">
-        <v>23.2166766886302</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720067</v>
+        <v>23.83115303720065</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538382</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821503</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.69635032622284</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524829</v>
+        <v>5.689030209524824</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745523</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557583</v>
+        <v>0.3693288190557579</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006028217938886157</v>
+        <v>0.006028217938886152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875689</v>
+        <v>0.07681860236875682</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513117</v>
+        <v>0.6829872101513111</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507708</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471111</v>
+        <v>5.431075187471107</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388297</v>
+        <v>8.92492489338829</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676795</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N25" t="n">
-        <v>11.75534121521169</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035828</v>
+        <v>9.290860781035821</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987452</v>
+        <v>6.432510421987446</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871559</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008245</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937793</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00419010558375038</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1712538965552916</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096881</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947887</v>
+        <v>6.602265846947881</v>
       </c>
       <c r="J26" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394519</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064921</v>
+        <v>27.02514928064918</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351437</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N26" t="n">
-        <v>30.5572608971021</v>
+        <v>30.55726089710207</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323041</v>
+        <v>28.85435496323039</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202165</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163526</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R26" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753712</v>
+        <v>3.902448167753708</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707894</v>
+        <v>0.7496639321707889</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442333</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106954</v>
+        <v>0.09162891267106947</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284876</v>
+        <v>0.8849423934284869</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017088</v>
+        <v>3.154767388017085</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436444</v>
+        <v>8.656922841436437</v>
       </c>
       <c r="K27" t="n">
-        <v>14.7960599903981</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430394</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M27" t="n">
-        <v>23.2166766886302</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720067</v>
+        <v>23.83115303720065</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538382</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821503</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.69635032622284</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524829</v>
+        <v>5.689030209524824</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745523</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557583</v>
+        <v>0.3693288190557579</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006028217938886157</v>
+        <v>0.006028217938886152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875689</v>
+        <v>0.07681860236875682</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513117</v>
+        <v>0.6829872101513111</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507708</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471111</v>
+        <v>5.431075187471107</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388297</v>
+        <v>8.92492489338829</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676795</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N28" t="n">
-        <v>11.75534121521169</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035828</v>
+        <v>9.290860781035821</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987452</v>
+        <v>6.432510421987446</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871559</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008245</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937793</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00419010558375038</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1712538965552916</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096881</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947887</v>
+        <v>6.602265846947881</v>
       </c>
       <c r="J29" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394519</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064921</v>
+        <v>27.02514928064918</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351437</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N29" t="n">
-        <v>30.5572608971021</v>
+        <v>30.55726089710207</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323041</v>
+        <v>28.85435496323039</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202165</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163526</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R29" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753712</v>
+        <v>3.902448167753708</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707894</v>
+        <v>0.7496639321707889</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442333</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106954</v>
+        <v>0.09162891267106947</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284876</v>
+        <v>0.8849423934284869</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017088</v>
+        <v>3.154767388017085</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436444</v>
+        <v>8.656922841436437</v>
       </c>
       <c r="K30" t="n">
-        <v>14.7960599903981</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430394</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M30" t="n">
-        <v>23.2166766886302</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720067</v>
+        <v>23.83115303720065</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538382</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821503</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.69635032622284</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524829</v>
+        <v>5.689030209524824</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745523</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557583</v>
+        <v>0.3693288190557579</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006028217938886157</v>
+        <v>0.006028217938886152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875689</v>
+        <v>0.07681860236875682</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513117</v>
+        <v>0.6829872101513111</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507708</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471111</v>
+        <v>5.431075187471107</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388297</v>
+        <v>8.92492489338829</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676795</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N31" t="n">
-        <v>11.75534121521169</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035828</v>
+        <v>9.290860781035821</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987452</v>
+        <v>6.432510421987446</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871559</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008245</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937793</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00419010558375038</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1712538965552916</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096881</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947887</v>
+        <v>6.602265846947881</v>
       </c>
       <c r="J32" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394519</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064921</v>
+        <v>27.02514928064918</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351437</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N32" t="n">
-        <v>30.5572608971021</v>
+        <v>30.55726089710207</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323041</v>
+        <v>28.85435496323039</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202165</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163526</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R32" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753712</v>
+        <v>3.902448167753708</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707894</v>
+        <v>0.7496639321707889</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442333</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106954</v>
+        <v>0.09162891267106947</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284876</v>
+        <v>0.8849423934284869</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017088</v>
+        <v>3.154767388017085</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436444</v>
+        <v>8.656922841436437</v>
       </c>
       <c r="K33" t="n">
-        <v>14.7960599903981</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430394</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M33" t="n">
-        <v>23.2166766886302</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720067</v>
+        <v>23.83115303720065</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538382</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821503</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.69635032622284</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524829</v>
+        <v>5.689030209524824</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745523</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557583</v>
+        <v>0.3693288190557579</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006028217938886157</v>
+        <v>0.006028217938886152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875689</v>
+        <v>0.07681860236875682</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513117</v>
+        <v>0.6829872101513111</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507708</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471111</v>
+        <v>5.431075187471107</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388297</v>
+        <v>8.92492489338829</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676795</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N34" t="n">
-        <v>11.75534121521169</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035828</v>
+        <v>9.290860781035821</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987452</v>
+        <v>6.432510421987446</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871559</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008245</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937793</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U34" t="n">
-        <v>0.00419010558375038</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1712538965552916</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096881</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947887</v>
+        <v>6.602265846947881</v>
       </c>
       <c r="J35" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394519</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064921</v>
+        <v>27.02514928064918</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351437</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N35" t="n">
-        <v>30.5572608971021</v>
+        <v>30.55726089710207</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323041</v>
+        <v>28.85435496323039</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202165</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163526</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R35" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753712</v>
+        <v>3.902448167753708</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707894</v>
+        <v>0.7496639321707889</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442333</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106954</v>
+        <v>0.09162891267106947</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284876</v>
+        <v>0.8849423934284869</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017088</v>
+        <v>3.154767388017085</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436444</v>
+        <v>8.656922841436437</v>
       </c>
       <c r="K36" t="n">
-        <v>14.7960599903981</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430394</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M36" t="n">
-        <v>23.2166766886302</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720067</v>
+        <v>23.83115303720065</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538382</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821503</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.69635032622284</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524829</v>
+        <v>5.689030209524824</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745523</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557583</v>
+        <v>0.3693288190557579</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006028217938886157</v>
+        <v>0.006028217938886152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875689</v>
+        <v>0.07681860236875682</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513117</v>
+        <v>0.6829872101513111</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507708</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471111</v>
+        <v>5.431075187471107</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388297</v>
+        <v>8.92492489338829</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676795</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N37" t="n">
-        <v>11.75534121521169</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035828</v>
+        <v>9.290860781035821</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987452</v>
+        <v>6.432510421987446</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871559</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008245</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937793</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U37" t="n">
-        <v>0.00419010558375038</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1712538965552916</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096881</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947887</v>
+        <v>6.602265846947881</v>
       </c>
       <c r="J38" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394519</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064921</v>
+        <v>27.02514928064918</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351437</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N38" t="n">
-        <v>30.5572608971021</v>
+        <v>30.55726089710207</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323041</v>
+        <v>28.85435496323039</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202165</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.49349422163526</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R38" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753712</v>
+        <v>3.902448167753708</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707894</v>
+        <v>0.7496639321707889</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442333</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106954</v>
+        <v>0.09162891267106947</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284876</v>
+        <v>0.8849423934284869</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017088</v>
+        <v>3.154767388017085</v>
       </c>
       <c r="J39" t="n">
-        <v>8.656922841436444</v>
+        <v>8.656922841436437</v>
       </c>
       <c r="K39" t="n">
-        <v>14.7960599903981</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430394</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M39" t="n">
-        <v>23.2166766886302</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N39" t="n">
-        <v>23.83115303720067</v>
+        <v>23.83115303720065</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538382</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821503</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.69635032622284</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524829</v>
+        <v>5.689030209524824</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745523</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557583</v>
+        <v>0.3693288190557579</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006028217938886157</v>
+        <v>0.006028217938886152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875689</v>
+        <v>0.07681860236875682</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513117</v>
+        <v>0.6829872101513111</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507708</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471111</v>
+        <v>5.431075187471107</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388297</v>
+        <v>8.92492489338829</v>
       </c>
       <c r="L40" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676795</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521169</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O40" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035828</v>
+        <v>9.290860781035821</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987452</v>
+        <v>6.432510421987446</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871559</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008245</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937793</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U40" t="n">
-        <v>0.00419010558375038</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1712538965552919</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H41" t="n">
-        <v>1.753853968096884</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I41" t="n">
-        <v>6.602265846947899</v>
+        <v>6.602265846947881</v>
       </c>
       <c r="J41" t="n">
-        <v>14.53496040275972</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K41" t="n">
-        <v>21.78413784394523</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L41" t="n">
-        <v>27.02514928064926</v>
+        <v>27.02514928064918</v>
       </c>
       <c r="M41" t="n">
-        <v>30.07068576351443</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N41" t="n">
-        <v>30.55726089710215</v>
+        <v>30.55726089710207</v>
       </c>
       <c r="O41" t="n">
-        <v>28.85435496323047</v>
+        <v>28.85435496323039</v>
       </c>
       <c r="P41" t="n">
-        <v>24.62652439202169</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.4934942216353</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R41" t="n">
-        <v>10.75752757949137</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S41" t="n">
-        <v>3.902448167753719</v>
+        <v>3.902448167753708</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7496639321707909</v>
+        <v>0.7496639321707889</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01370031172442335</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09162891267106972</v>
+        <v>0.09162891267106947</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8849423934284892</v>
+        <v>0.8849423934284869</v>
       </c>
       <c r="I42" t="n">
-        <v>3.154767388017094</v>
+        <v>3.154767388017085</v>
       </c>
       <c r="J42" t="n">
-        <v>8.65692284143646</v>
+        <v>8.656922841436437</v>
       </c>
       <c r="K42" t="n">
-        <v>14.79605999039813</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L42" t="n">
-        <v>19.89512860430398</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M42" t="n">
-        <v>23.21667668863025</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N42" t="n">
-        <v>23.83115303720071</v>
+        <v>23.83115303720065</v>
       </c>
       <c r="O42" t="n">
-        <v>21.80084923538385</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P42" t="n">
-        <v>17.49710350821506</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.69635032622286</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R42" t="n">
-        <v>5.689030209524839</v>
+        <v>5.689030209524824</v>
       </c>
       <c r="S42" t="n">
-        <v>1.701966864745526</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3693288190557589</v>
+        <v>0.3693288190557579</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006028217938886168</v>
+        <v>0.006028217938886152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07681860236875702</v>
+        <v>0.07681860236875682</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6829872101513129</v>
+        <v>0.6829872101513111</v>
       </c>
       <c r="I43" t="n">
-        <v>2.310144878507712</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J43" t="n">
-        <v>5.431075187471121</v>
+        <v>5.431075187471107</v>
       </c>
       <c r="K43" t="n">
-        <v>8.924924893388315</v>
+        <v>8.92492489338829</v>
       </c>
       <c r="L43" t="n">
-        <v>11.4208311194423</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M43" t="n">
-        <v>12.04166509676798</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N43" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O43" t="n">
-        <v>10.8579602693585</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P43" t="n">
-        <v>9.290860781035846</v>
+        <v>9.290860781035821</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.432510421987464</v>
+        <v>6.432510421987446</v>
       </c>
       <c r="R43" t="n">
-        <v>3.454043702871565</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S43" t="n">
-        <v>1.338738734008247</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3282249373937799</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004190105583750388</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
-        <v>244.2170912967376</v>
-      </c>
       <c r="M2" t="n">
+        <v>441.8756042977812</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>522.0635703700256</v>
@@ -34789,19 +34789,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40.55973291537975</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35023,22 +35023,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>471.1119924130244</v>
       </c>
       <c r="N6" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>147.5918456237784</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N15" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K23" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L23" t="n">
         <v>746.8144420202835</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>687.6609588258073</v>
       </c>
       <c r="M24" t="n">
-        <v>874.7086773902126</v>
+        <v>313.0819087232765</v>
       </c>
       <c r="N24" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>279.8033285417085</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K26" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L26" t="n">
         <v>746.8144420202835</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>687.6609588258073</v>
       </c>
       <c r="M27" t="n">
         <v>874.7086773902126</v>
       </c>
       <c r="N27" t="n">
-        <v>906.3140743620672</v>
+        <v>23.25002422363248</v>
       </c>
       <c r="O27" t="n">
-        <v>279.8033285417085</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K29" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L29" t="n">
         <v>746.8144420202835</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>687.6609588258073</v>
       </c>
       <c r="M30" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>906.3140743620672</v>
+        <v>640.2965040046213</v>
       </c>
       <c r="O30" t="n">
-        <v>279.8033285417085</v>
+        <v>732.8686174635599</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K32" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L32" t="n">
         <v>746.8144420202835</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>432.2508850414078</v>
       </c>
       <c r="M33" t="n">
-        <v>421.6433884683613</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K35" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L35" t="n">
         <v>746.8144420202835</v>
@@ -37393,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>874.7086773902126</v>
+        <v>421.6433884683613</v>
       </c>
       <c r="N36" t="n">
         <v>906.3140743620672</v>
       </c>
       <c r="O36" t="n">
-        <v>279.8033285417081</v>
+        <v>732.8686174635599</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K38" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L38" t="n">
         <v>746.8144420202835</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>687.6609588258073</v>
+        <v>635.6682700673223</v>
       </c>
       <c r="M39" t="n">
-        <v>640.2965040046213</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K41" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L41" t="n">
         <v>746.8144420202835</v>
       </c>
       <c r="M41" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N41" t="n">
-        <v>791.3461665926759</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O41" t="n">
         <v>678.9865331623263</v>
@@ -37803,7 +37803,7 @@
         <v>342.8985515906171</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L42" t="n">
-        <v>687.6609588258073</v>
+        <v>432.2508850414078</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>466.8510471061143</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K43" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L43" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M43" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N43" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871816</v>
       </c>
       <c r="O43" t="n">
         <v>273.0403949425647</v>
@@ -37958,7 +37958,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>342.8985515906171</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682961</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>687.6609588258073</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>109.6645236973619</v>
       </c>
       <c r="N45" t="n">
-        <v>378.0060724580982</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>732.86861746356</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>584.8767928905687</v>
       </c>
       <c r="Q45" t="n">
-        <v>365.0745974817616</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
